--- a/data/trans_dic/P69_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P69_R-Habitat-trans_dic.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,31; 100,0</t>
+          <t>80,33; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>71,02; 100,0</t>
+          <t>69,52; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>86,51; 100,0</t>
+          <t>85,08; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>86,44; 100,0</t>
+          <t>86,29; 100,0</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>93,22; 100,0</t>
+          <t>91,97; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>97,87; 100,0</t>
+          <t>98,14; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,65; 100,0</t>
+          <t>93,92; 100,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>99,29; 100,0</t>
+          <t>99,15; 100,0</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>96,0; 100,0</t>
+          <t>96,6; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,66; 100,0</t>
+          <t>92,7; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>94,45; 99,59</t>
+          <t>94,77; 99,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>97,26; 100,0</t>
+          <t>97,52; 100,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>95,28; 100,0</t>
+          <t>95,41; 100,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>97,19; 99,8</t>
+          <t>97,29; 99,8</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1154,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>96,41; 100,0</t>
+          <t>95,55; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>89,93; 100,0</t>
+          <t>90,57; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>94,7; 100,0</t>
+          <t>95,33; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>96,74; 100,0</t>
+          <t>96,01; 100,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>97,24; 100,0</t>
+          <t>96,31; 100,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,08; 100,0</t>
+          <t>95,42; 100,0</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>96,58; 100,0</t>
+          <t>96,59; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,12 +1294,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,82; 100,0</t>
+          <t>95,73; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>95,02; 100,0</t>
+          <t>94,23; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,17 +1314,17 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>91,69; 100,0</t>
+          <t>91,54; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>95,52; 100,0</t>
+          <t>96,13; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>98,12; 100,0</t>
+          <t>98,47; 100,0</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>95,35; 100,0</t>
+          <t>95,91; 100,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>96,54; 100,0</t>
+          <t>97,17; 100,0</t>
         </is>
       </c>
     </row>
@@ -1424,22 +1424,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>98,04; 99,79</t>
+          <t>98,13; 99,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>98,86; 100,0</t>
+          <t>98,77; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96,89; 99,7</t>
+          <t>97,22; 99,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>97,53; 99,78</t>
+          <t>97,65; 99,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,32 +1454,32 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>97,3; 100,0</t>
+          <t>97,88; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>97,53; 99,58</t>
+          <t>97,68; 99,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>98,62; 99,85</t>
+          <t>98,71; 99,86</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>99,19; 100,0</t>
+          <t>99,25; 100,0</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>98,1; 99,66</t>
+          <t>98,07; 99,68</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>98,2; 99,56</t>
+          <t>98,08; 99,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P69_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P69_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,33; 100,0</t>
+          <t>80,58; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>85,08; 100,0</t>
+          <t>87,71; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>91,97; 100,0</t>
+          <t>92,99; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,92; 100,0</t>
+          <t>94,36; 100,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>96,6; 100,0</t>
+          <t>96,61; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,7; 100,0</t>
+          <t>93,52; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>97,52; 100,0</t>
+          <t>97,74; 100,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>95,41; 100,0</t>
+          <t>96,0; 100,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,23; 100,0</t>
+          <t>94,36; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>95,55; 100,0</t>
+          <t>95,57; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>96,01; 100,0</t>
+          <t>96,66; 100,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>96,31; 100,0</t>
+          <t>97,23; 100,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>96,59; 100,0</t>
+          <t>96,83; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>95,73; 100,0</t>
+          <t>94,72; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>91,54; 100,0</t>
+          <t>91,3; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>98,47; 100,0</t>
+          <t>97,83; 100,0</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>95,91; 100,0</t>
+          <t>95,63; 100,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>98,13; 99,79</t>
+          <t>98,05; 99,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>98,77; 100,0</t>
+          <t>98,56; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>97,22; 99,72</t>
+          <t>97,44; 99,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>97,88; 100,0</t>
+          <t>97,02; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>98,71; 99,86</t>
+          <t>98,57; 99,86</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>99,25; 100,0</t>
+          <t>99,15; 100,0</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>98,07; 99,68</t>
+          <t>98,01; 99,66</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P69_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P69_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,58; 100,0</t>
+          <t>80,31; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>69,52; 100,0</t>
+          <t>71,02; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>87,71; 100,0</t>
+          <t>86,51; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>86,29; 100,0</t>
+          <t>86,44; 100,0</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>92,99; 100,0</t>
+          <t>93,22; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>98,14; 100,0</t>
+          <t>97,87; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>94,36; 100,0</t>
+          <t>93,65; 100,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>99,15; 100,0</t>
+          <t>99,29; 100,0</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>96,61; 100,0</t>
+          <t>96,0; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,52; 100,0</t>
+          <t>93,66; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>94,77; 99,59</t>
+          <t>94,45; 99,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>97,74; 100,0</t>
+          <t>97,26; 100,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>96,0; 100,0</t>
+          <t>95,28; 100,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>97,29; 99,8</t>
+          <t>97,19; 99,8</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>94,36; 100,0</t>
+          <t>95,23; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1154,12 +1154,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>95,57; 100,0</t>
+          <t>96,41; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>90,57; 100,0</t>
+          <t>89,93; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,33; 100,0</t>
+          <t>94,7; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>96,66; 100,0</t>
+          <t>96,74; 100,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>97,23; 100,0</t>
+          <t>97,24; 100,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,42; 100,0</t>
+          <t>95,08; 100,0</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>96,83; 100,0</t>
+          <t>96,58; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,12 +1294,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,72; 100,0</t>
+          <t>94,82; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>94,23; 100,0</t>
+          <t>95,02; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,17 +1314,17 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>91,3; 100,0</t>
+          <t>91,69; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>96,13; 100,0</t>
+          <t>95,52; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>97,83; 100,0</t>
+          <t>98,12; 100,0</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>95,63; 100,0</t>
+          <t>95,35; 100,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>97,17; 100,0</t>
+          <t>96,54; 100,0</t>
         </is>
       </c>
     </row>
@@ -1424,22 +1424,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>98,05; 99,8</t>
+          <t>98,04; 99,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>98,56; 100,0</t>
+          <t>98,86; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>97,44; 99,72</t>
+          <t>96,89; 99,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>97,65; 99,78</t>
+          <t>97,53; 99,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,32 +1454,32 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>97,02; 100,0</t>
+          <t>97,3; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>97,68; 99,56</t>
+          <t>97,53; 99,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>98,57; 99,86</t>
+          <t>98,62; 99,85</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>99,15; 100,0</t>
+          <t>99,19; 100,0</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>98,01; 99,66</t>
+          <t>98,1; 99,66</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>98,08; 99,54</t>
+          <t>98,2; 99,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P69_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P69_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>98,95%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>94,59%</t>
+          <t>99,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,17 +691,17 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,7%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,09%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>97,24%</t>
+          <t>99,28%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>96,98%</t>
+          <t>99,31%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,39; 100</t>
+          <t>92,35; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,31; 100,0</t>
+          <t>94,56; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,25; 100</t>
+          <t>96,25; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>71,02; 100,0</t>
+          <t>94,72; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,75; 100</t>
+          <t>94,39; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100</t>
+          <t>94,22; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>76,75; 100</t>
+          <t>93,85; 100</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>89,47; 100</t>
+          <t>98,38; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>91,36; 100</t>
+          <t>95,4; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>86,51; 100,0</t>
+          <t>96,31; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>88,17; 100</t>
+          <t>97,64; 100</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>86,44; 100,0</t>
+          <t>96,88; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>98,42%</t>
+          <t>99,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -831,12 +831,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>97,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>98,87%</t>
+          <t>99,51%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,68%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>99,85%</t>
+          <t>99,04%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>93,22; 100,0</t>
+          <t>96,0; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>96,58; 100</t>
+          <t>97,85; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95,56; 100</t>
+          <t>93,66; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>96,64; 100</t>
+          <t>98,29; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,94; 100</t>
+          <t>96,25; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>92,94; 100</t>
+          <t>96,76; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,07; 100</t>
+          <t>96,39; 100</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>97,87; 100,0</t>
+          <t>94,27; 99,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,65; 100,0</t>
+          <t>97,26; 100,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>97,66; 100</t>
+          <t>98,7; 100</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>97,1; 100</t>
+          <t>95,28; 100,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>99,29; 100,0</t>
+          <t>97,17; 99,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>99,34%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -946,12 +946,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>99,13%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>98,03%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>99,51%</t>
+          <t>99,35%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>98,68%</t>
+          <t>99,46%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>98,87%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>96,0; 100,0</t>
+          <t>95,23; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>97,85; 100</t>
+          <t>97,38; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,66; 100,0</t>
+          <t>96,41; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>98,29; 100</t>
+          <t>91,03; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>96,25; 100</t>
+          <t>96,02; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>96,76; 100</t>
+          <t>96,18; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>96,39; 100</t>
+          <t>97,05; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>94,45; 99,59</t>
+          <t>96,28; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>97,26; 100,0</t>
+          <t>96,74; 100,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>98,7; 100</t>
+          <t>98,43; 100</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>95,28; 100,0</t>
+          <t>97,24; 100,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>97,19; 99,8</t>
+          <t>95,93; 100,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>99,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>99,13%</t>
+          <t>98,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>99,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1106,17 +1106,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>99,33%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>99,35%</t>
+          <t>99,62%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>99,46%</t>
+          <t>98,68%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>98,57%</t>
+          <t>99,17%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,23; 100,0</t>
+          <t>96,58; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>97,38; 100</t>
+          <t>97,64; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>96,41; 100,0</t>
+          <t>94,82; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>89,93; 100,0</t>
+          <t>95,03; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,02; 100</t>
+          <t>97,77; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,18; 100</t>
+          <t>96,81; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,05; 100</t>
+          <t>91,69; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>94,7; 100,0</t>
+          <t>95,94; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>96,74; 100,0</t>
+          <t>98,12; 100,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>98,43; 100</t>
+          <t>98,63; 100</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>97,24; 100,0</t>
+          <t>95,35; 100,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,08; 100,0</t>
+          <t>96,52; 100,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,22 +1216,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>99,18%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>98,96%</t>
+          <t>98,89%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1246,32 +1246,32 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>98,32%</t>
+          <t>99,49%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>99,27%</t>
+          <t>98,98%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>99,62%</t>
+          <t>99,44%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,85%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>98,68%</t>
+          <t>99,12%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>99,09%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>96,58; 100,0</t>
+          <t>98,04; 99,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>97,64; 100</t>
+          <t>98,86; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,82; 100,0</t>
+          <t>96,89; 99,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>95,02; 100,0</t>
+          <t>97,71; 99,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>97,77; 100</t>
+          <t>99,11; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>96,81; 100</t>
+          <t>99,04; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>91,69; 100,0</t>
+          <t>97,3; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>95,52; 100,0</t>
+          <t>97,58; 99,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>98,12; 100,0</t>
+          <t>98,62; 99,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>98,63; 100</t>
+          <t>99,19; 100,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>95,35; 100,0</t>
+          <t>98,1; 99,66</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>96,54; 100,0</t>
+          <t>98,27; 99,59</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>99,18%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>99,75%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>98,89%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>99,16%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>99,49%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>98,91%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>99,44%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>99,85%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>99,12%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>99,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>98,04; 99,79</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>98,86; 100,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>96,89; 99,7</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>97,53; 99,78</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>99,11; 100</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>99,04; 100</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>97,3; 100,0</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>97,53; 99,58</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>98,62; 99,85</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>99,19; 100,0</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>98,1; 99,66</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>98,2; 99,56</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P69_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P69_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>92,35; 100,0</t>
+          <t>94,3; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>94,56; 100,0</t>
+          <t>94,39; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +740,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>94,72; 100,0</t>
+          <t>93,75; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>98,38; 100,0</t>
+          <t>98,45; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>95,4; 100,0</t>
+          <t>95,44; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>96,31; 100,0</t>
+          <t>96,09; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,88; 100,0</t>
+          <t>96,48; 100,0</t>
         </is>
       </c>
     </row>
@@ -864,7 +865,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>96,0; 100,0</t>
+          <t>96,63; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,7 +875,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,66; 100,0</t>
+          <t>92,63; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -899,12 +900,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>94,27; 99,58</t>
+          <t>93,97; 99,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>97,26; 100,0</t>
+          <t>97,27; 100,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,7 +915,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>95,28; 100,0</t>
+          <t>95,29; 100,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,7 +1005,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>95,23; 100,0</t>
+          <t>95,28; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>96,41; 100,0</t>
+          <t>95,08; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>91,03; 100,0</t>
+          <t>91,74; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,12 +1040,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>96,28; 100,0</t>
+          <t>95,35; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>96,74; 100,0</t>
+          <t>96,69; 100,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>97,24; 100,0</t>
+          <t>97,23; 100,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>95,93; 100,0</t>
+          <t>95,56; 100,0</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1145,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>96,58; 100,0</t>
+          <t>95,9; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1154,12 +1155,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94,82; 100,0</t>
+          <t>94,79; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,03; 100,0</t>
+          <t>94,06; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,17 +1175,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,69; 100,0</t>
+          <t>89,77; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,94; 100,0</t>
+          <t>97,07; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>98,12; 100,0</t>
+          <t>98,03; 100,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>95,35; 100,0</t>
+          <t>95,32; 100,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,52; 100,0</t>
+          <t>96,77; 100,0</t>
         </is>
       </c>
     </row>
@@ -1284,22 +1285,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>98,04; 99,79</t>
+          <t>98,09; 99,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>98,86; 100,0</t>
+          <t>98,66; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>96,89; 99,7</t>
+          <t>97,47; 99,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>97,71; 99,79</t>
+          <t>97,9; 99,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,32 +1315,32 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>97,3; 100,0</t>
+          <t>97,18; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>97,58; 99,6</t>
+          <t>97,64; 99,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>98,62; 99,85</t>
+          <t>98,58; 99,86</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>99,19; 100,0</t>
+          <t>99,15; 100,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>98,1; 99,66</t>
+          <t>97,88; 99,67</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>98,27; 99,59</t>
+          <t>98,27; 99,57</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que considera que tiene problemas de salud a causa del trabajo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>78313</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>76830</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>54673</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>70503</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>32241</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>35254</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>29915</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>54519</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>110554</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>112085</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>84588</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>125023</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>74809; 79331</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>73286; 77643</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>52623; 54673</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>66765; 71215</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>30431; 32241</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>33216; 35254</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>28075; 29915</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>53832; 54681</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>106484; 111572</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>108485; 112898</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>82588; 84588</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>121470; 125897</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>145010</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>93909</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>94966</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>111983</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>52797</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>63498</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>55552</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>96706</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>197806</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>157408</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>150517</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>208688</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>141055; 145981</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>91887; 93909</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>89833; 96984</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>110066; 111983</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>50817; 52797</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>61438; 63498</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>53547; 55552</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>92777; 98303</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>193358; 198777</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>155354; 157408</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>145357; 152535</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>204756; 210293</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>108928</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>79557</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>108984</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>54296</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>46533</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>52979</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>64747</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>96173</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>155461</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>132536</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>173731</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>150468</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>104752; 109944</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>77470; 79557</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>104521; 109935</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>50713; 55277</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>44679; 46533</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>50953; 52979</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>62840; 64747</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>92401; 96908</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>151294; 156477</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>130453; 132536</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>169848; 174682</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>145433; 152184</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>136199</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>80342</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>87489</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>100027</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>88551</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>64096</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>64971</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>103202</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>224750</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>144438</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>152460</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>203229</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>131426; 137049</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>78442; 80342</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>83801; 88410</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>95027; 101030</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>86578; 88551</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>62052; 64096</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>59325; 66083</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>100850; 103896</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>221165; 225600</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>142459; 144438</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>147259; 154493</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>198315; 204926</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>468450</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>330639</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>346111</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>336809</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>220121</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>215828</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>215186</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>350600</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>688572</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>546466</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>561297</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>687409</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>463283; 471292</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>326996; 331452</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>341162; 349046</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>332373; 338806</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>218166; 220121</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>213747; 215828</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>210200; 216298</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>345853; 352800</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>682580; 691449</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>542649; 547279</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>554297; 564443</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>681710; 690759</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>